--- a/medicine/Enfance/Médaille_Anni-Swan/Médaille_Anni-Swan.xlsx
+++ b/medicine/Enfance/Médaille_Anni-Swan/Médaille_Anni-Swan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Anni-Swan</t>
+          <t>Médaille_Anni-Swan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La médaille Anni-Swan (finnois : Anni Swan -mitali) est un prix littéraire de Finlande[1].
+La médaille Anni-Swan (finnois : Anni Swan -mitali) est un prix littéraire de Finlande.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Anni-Swan</t>
+          <t>Médaille_Anni-Swan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix récompensant les livres pour enfants ou pour les jeunes est distribué par IBBY tous les trois ans.
 Le prix est nommé en l'honneur d'Anni Swan.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Anni-Swan</t>
+          <t>Médaille_Anni-Swan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
